--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_224__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_224__Reeval_Sobol_Modell_1.1.xlsx
@@ -6130,7 +6130,7 @@
                   <c:v>3.034122705459595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.24025344848633</c:v>
+                  <c:v>11.24025440216064</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.141165256500244</c:v>
@@ -6214,7 +6214,7 @@
                   <c:v>1.141165256500244</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.58745193481445</c:v>
+                  <c:v>51.58745574951172</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.141165256500244</c:v>
@@ -6259,7 +6259,7 @@
                   <c:v>55.12057876586914</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>68.61652374267578</c:v>
+                  <c:v>68.61651611328125</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>8.371424674987793</c:v>
@@ -6271,7 +6271,7 @@
                   <c:v>8.23275089263916</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.34918594360352</c:v>
+                  <c:v>17.34919357299805</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.141165256500244</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>1.141165256500244</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57.23079299926758</c:v>
+                  <c:v>57.23080062866211</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>51.51157760620117</c:v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11.24025344848633</v>
+        <v>11.24025440216064</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>51.58745193481445</v>
+        <v>51.58745574951172</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>68.61652374267578</v>
+        <v>68.61651611328125</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>17.34918594360352</v>
+        <v>17.34919357299805</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>57.23079299926758</v>
+        <v>57.23080062866211</v>
       </c>
     </row>
     <row r="60" spans="1:6">
